--- a/cypress/fixtures/return next day DoorToCounter.xlsx
+++ b/cypress/fixtures/return next day DoorToCounter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\MylerzEnd2End\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2589,10 +2589,10 @@
         <v>492</v>
       </c>
       <c r="G2" t="s">
-        <v>493</v>
+        <v>27</v>
       </c>
       <c r="H2" s="21">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
         <v>543</v>
